--- a/src/main/webapp/doc/可信数据库文档.xlsx
+++ b/src/main/webapp/doc/可信数据库文档.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaoyang/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaoyang/Documents/workspace/kexin/src/main/webapp/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="58">
   <si>
     <t>表名</t>
     <rPh sb="0" eb="1">
@@ -352,6 +352,54 @@
   </si>
   <si>
     <t>report_company</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态0=删除 1＝正常</t>
+    <rPh sb="0" eb="1">
+      <t>zhuang tai</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shan chu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zheng c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report_handle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件类型 1图片 2视频 3录音</t>
+    <rPh sb="0" eb="1">
+      <t>wen jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei x</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tu p</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shi p</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>lu yin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -426,23 +474,47 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="15">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -717,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -746,7 +818,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s" ph="1">
+      <c r="A2" s="3" t="s" ph="1">
         <v>51</v>
       </c>
       <c r="B2" t="s">
@@ -760,7 +832,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" ph="1"/>
+      <c r="A3" s="3" ph="1"/>
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -772,7 +844,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" ph="1"/>
+      <c r="A4" s="3" ph="1"/>
       <c r="B4" t="s">
         <v>50</v>
       </c>
@@ -784,7 +856,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" ph="1"/>
+      <c r="A5" s="3" ph="1"/>
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -796,7 +868,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" ph="1"/>
+      <c r="A6" s="3" ph="1"/>
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -808,7 +880,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" ph="1"/>
+      <c r="A7" s="3" ph="1"/>
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -820,7 +892,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" ph="1"/>
+      <c r="A8" s="3" ph="1"/>
       <c r="B8" t="s">
         <v>36</v>
       </c>
@@ -832,7 +904,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" ph="1"/>
+      <c r="A9" s="3" ph="1"/>
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -844,7 +916,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" ph="1"/>
+      <c r="A10" s="3" ph="1"/>
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -856,13 +928,13 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" ph="1"/>
+      <c r="A11" s="2" ph="1"/>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" ph="1"/>
+      <c r="A12" s="2" ph="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s" ph="1">
+      <c r="A13" s="3" t="s" ph="1">
         <v>13</v>
       </c>
       <c r="B13" t="s">
@@ -876,7 +948,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" ph="1"/>
+      <c r="A14" s="3" ph="1"/>
       <c r="B14" t="s">
         <v>41</v>
       </c>
@@ -888,7 +960,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" ph="1"/>
+      <c r="A15" s="3" ph="1"/>
       <c r="B15" t="s">
         <v>40</v>
       </c>
@@ -900,7 +972,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" ph="1"/>
+      <c r="A16" s="3" ph="1"/>
       <c r="B16" t="s">
         <v>5</v>
       </c>
@@ -912,7 +984,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" ph="1"/>
+      <c r="A17" s="3" ph="1"/>
       <c r="B17" t="s">
         <v>11</v>
       </c>
@@ -924,7 +996,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" ph="1"/>
+      <c r="A18" s="3" ph="1"/>
       <c r="B18" t="s">
         <v>6</v>
       </c>
@@ -936,7 +1008,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" ph="1"/>
+      <c r="A19" s="3" ph="1"/>
       <c r="B19" t="s">
         <v>7</v>
       </c>
@@ -948,7 +1020,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" ph="1"/>
+      <c r="A20" s="3" ph="1"/>
       <c r="B20" t="s">
         <v>12</v>
       </c>
@@ -960,7 +1032,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" ph="1"/>
+      <c r="A21" s="3" ph="1"/>
       <c r="B21" t="s">
         <v>36</v>
       </c>
@@ -972,7 +1044,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" ph="1"/>
+      <c r="A22" s="3" ph="1"/>
       <c r="B22" t="s">
         <v>8</v>
       </c>
@@ -984,7 +1056,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" ph="1"/>
+      <c r="A23" s="3" ph="1"/>
       <c r="B23" t="s">
         <v>9</v>
       </c>
@@ -996,10 +1068,10 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" ph="1"/>
+      <c r="A24" s="2" ph="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s" ph="1">
+      <c r="A25" s="3" t="s" ph="1">
         <v>14</v>
       </c>
       <c r="B25" t="s">
@@ -1013,7 +1085,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" ph="1"/>
+      <c r="A26" s="3" ph="1"/>
       <c r="B26" t="s">
         <v>27</v>
       </c>
@@ -1025,7 +1097,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" ph="1"/>
+      <c r="A27" s="3" ph="1"/>
       <c r="B27" t="s">
         <v>28</v>
       </c>
@@ -1037,7 +1109,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" ph="1"/>
+      <c r="A28" s="3" ph="1"/>
       <c r="B28" t="s">
         <v>39</v>
       </c>
@@ -1049,7 +1121,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="2" ph="1"/>
+      <c r="A29" s="3" ph="1"/>
       <c r="B29" t="s">
         <v>29</v>
       </c>
@@ -1061,7 +1133,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" ph="1"/>
+      <c r="A30" s="3" ph="1"/>
       <c r="B30" t="s">
         <v>38</v>
       </c>
@@ -1073,7 +1145,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" ph="1"/>
+      <c r="A31" s="3" ph="1"/>
       <c r="B31" t="s">
         <v>33</v>
       </c>
@@ -1085,7 +1157,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" ph="1"/>
+      <c r="A32" s="3" ph="1"/>
       <c r="B32" t="s">
         <v>34</v>
       </c>
@@ -1097,7 +1169,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" ph="1"/>
+      <c r="A33" s="3" ph="1"/>
       <c r="B33" t="s">
         <v>8</v>
       </c>
@@ -1109,14 +1181,106 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" ph="1"/>
+      <c r="A34" s="3" ph="1"/>
       <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" ph="1"/>
+      <c r="B35" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1124,7 +1288,7 @@
   <mergeCells count="3">
     <mergeCell ref="A13:A23"/>
     <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="A25:A35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/webapp/doc/可信数据库文档.xlsx
+++ b/src/main/webapp/doc/可信数据库文档.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="73">
   <si>
     <t>表名</t>
     <rPh sb="0" eb="1">
@@ -379,10 +379,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>file_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文件类型 1图片 2视频 3录音</t>
     <rPh sb="0" eb="1">
       <t>wen jian</t>
@@ -399,6 +395,118 @@
     <rPh sb="14" eb="15">
       <t>lu yin</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号</t>
+    <rPh sb="0" eb="1">
+      <t>shou ij hao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hao ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <rPh sb="0" eb="1">
+      <t>you xiang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收天 1=每天 2=周1-5</t>
+    <rPh sb="0" eb="1">
+      <t>jie shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>mei tian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zhou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收时间 1=00-24 2=9-18 3＝9-17 4=8－18 5=8-17</t>
+    <rPh sb="0" eb="1">
+      <t>jie shou</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>shou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>s j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report sms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送内容</t>
+    <rPh sb="0" eb="1">
+      <t>fa song</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nei rong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(256)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送状态0=未发送 1=已发送</t>
+    <rPh sb="0" eb="1">
+      <t>fa song</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuang tai</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yi jing</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>fa song</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -789,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1183,13 +1291,13 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="3" ph="1"/>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
@@ -1281,6 +1389,177 @@
         <v>44</v>
       </c>
       <c r="D43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" t="s">
         <v>21</v>
       </c>
     </row>

--- a/src/main/webapp/doc/可信数据库文档.xlsx
+++ b/src/main/webapp/doc/可信数据库文档.xlsx
@@ -582,8 +582,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -607,7 +609,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="17">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -616,6 +618,7 @@
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -623,6 +626,7 @@
     <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -899,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>

--- a/src/main/webapp/doc/可信数据库文档.xlsx
+++ b/src/main/webapp/doc/可信数据库文档.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="74">
   <si>
     <t>表名</t>
     <rPh sb="0" eb="1">
@@ -507,6 +507,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report_product_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -901,10 +905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1567,6 +1571,72 @@
         <v>21</v>
       </c>
     </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B65" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A13:A23"/>

--- a/src/main/webapp/doc/可信数据库文档.xlsx
+++ b/src/main/webapp/doc/可信数据库文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="10320" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="82">
   <si>
     <t>表名</t>
     <rPh sb="0" eb="1">
@@ -511,6 +511,48 @@
   </si>
   <si>
     <t>report_product_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>directions</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>isfalse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点数</t>
+    <rPh sb="0" eb="1">
+      <t>dian shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为假</t>
+    <rPh sb="0" eb="1">
+      <t>shi fou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,8 +628,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -613,7 +663,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="25">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -623,6 +673,10 @@
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -631,6 +685,10 @@
     <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -905,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1604,7 +1662,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
         <v>40</v>
       </c>
@@ -1615,7 +1673,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
         <v>8</v>
       </c>
@@ -1626,7 +1684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
         <v>9</v>
       </c>
@@ -1635,6 +1693,76 @@
       </c>
       <c r="D67" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D72" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+      <c r="D73" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B76" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/doc/可信数据库文档.xlsx
+++ b/src/main/webapp/doc/可信数据库文档.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="83">
   <si>
     <t>表名</t>
     <rPh sb="0" eb="1">
@@ -553,6 +553,10 @@
   </si>
   <si>
     <t>productid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -963,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1765,6 +1769,11 @@
         <v>81</v>
       </c>
     </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A13:A23"/>

--- a/src/main/webapp/doc/可信数据库文档.xlsx
+++ b/src/main/webapp/doc/可信数据库文档.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="84">
   <si>
     <t>表名</t>
     <rPh sb="0" eb="1">
@@ -557,6 +557,19 @@
   </si>
   <si>
     <t>Collect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型1= 企业2=产品</t>
+    <rPh sb="0" eb="1">
+      <t>lei xing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qi ye</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>chan p</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,8 +645,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -667,7 +682,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="27">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -681,6 +696,7 @@
     <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -693,6 +709,7 @@
     <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -967,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -978,7 +995,7 @@
     <col min="1" max="1" width="32.6640625" customWidth="1"/>
     <col min="2" max="2" width="19.83203125" customWidth="1"/>
     <col min="3" max="3" width="16.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -1772,6 +1789,39 @@
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>82</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B79" t="s">
+        <v>34</v>
+      </c>
+      <c r="D79" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D81" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D82" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/doc/可信数据库文档.xlsx
+++ b/src/main/webapp/doc/可信数据库文档.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="86">
   <si>
     <t>表名</t>
     <rPh sb="0" eb="1">
@@ -570,6 +570,14 @@
     <rPh sb="9" eb="10">
       <t>chan p</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sourceid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -984,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1802,6 +1810,11 @@
         <v>83</v>
       </c>
     </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
+    </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
         <v>8</v>
@@ -1822,6 +1835,11 @@
       </c>
       <c r="D82" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B83" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
